--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -606,7 +606,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-CORE】　completed or stopped に限定される。</t>
+【JP-Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
